--- a/srcript/python/PD/VLAN模块PD探针.xlsx
+++ b/srcript/python/PD/VLAN模块PD探针.xlsx
@@ -4,20 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tt_vlan_pd_0" sheetId="8" r:id="rId1"/>
-    <sheet name="tt_vlan_pd_1" sheetId="9" r:id="rId2"/>
-    <sheet name="vcap_vlan_pd_0" sheetId="7" r:id="rId3"/>
-    <sheet name="vcap_vlan_pd_1" sheetId="10" r:id="rId4"/>
+    <sheet name="vcap_vlan_pd_0" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
   <si>
     <t>CSR节点号</t>
   </si>
@@ -64,87 +62,160 @@
     <t>PD探针寄存器</t>
   </si>
   <si>
-    <t>ivlan_debug_pd_[n]</t>
-  </si>
-  <si>
-    <t>63:40</t>
-  </si>
-  <si>
-    <t>24'h0</t>
-  </si>
-  <si>
     <t>ivlan_debug_pd_4</t>
   </si>
   <si>
-    <t>39:0</t>
-  </si>
-  <si>
-    <t>40'h0</t>
-  </si>
-  <si>
-    <t>ivlan_debug_fifo_[n]</t>
-  </si>
-  <si>
-    <t>63:48</t>
-  </si>
-  <si>
-    <t>16'h0</t>
+    <t>IVLAN_DUBUG_PD_TAIL</t>
+  </si>
+  <si>
+    <t>0x024</t>
+  </si>
+  <si>
+    <t>0x027</t>
+  </si>
+  <si>
+    <t>TT2VLAN_f</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCAP2VLAN_r</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0_ING_VLAN_ADDR_PREFIX</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x025</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ivlan_debug_fifo_0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IVLAN_DUBUG_FIFO_0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IVLAN_DUBUG_FIFO_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IVLAN_DUBUG_FIFO_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IVLAN_DUBUG_FIFO_3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IVLAN_DUBUG_FIFO_4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x026</t>
+  </si>
+  <si>
+    <t>0x028</t>
+  </si>
+  <si>
+    <t>0x029</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ivlan_debug_fifo_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ivlan_debug_fifo_2</t>
-  </si>
-  <si>
-    <t>47:0</t>
-  </si>
-  <si>
-    <t>48'h0</t>
-  </si>
-  <si>
-    <t>IVLAN_DUBUG_PD_[n]</t>
-  </si>
-  <si>
-    <t>0x020+n4*0x001</t>
-  </si>
-  <si>
-    <t>IVLAN_DUBUG_PD_TAIL</t>
-  </si>
-  <si>
-    <t>0x024</t>
-  </si>
-  <si>
-    <t>IVLAN_DUBUG_FIFO_[n]</t>
-  </si>
-  <si>
-    <t>0x025+n2*0x001</t>
-  </si>
-  <si>
-    <t>IVLAN_DUBUG_FIFO</t>
-  </si>
-  <si>
-    <t>0x027</t>
-  </si>
-  <si>
-    <t>TT2VLAN_f</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>VCAP2VLAN_r</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P0_ING_VLAN_ADDR_PREFIX</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P1_ING_VLAN_ADDR_PREFIX</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ivlan_debug_fifo_3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ivlan_debug_fifo_4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>63:6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>58'h0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6'h0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>63:45</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>19'h0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>44:0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>45'h0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IVLAN_DUBUG_PD_0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x020</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ivlan_debug_pd_0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IVLAN_DUBUG_PD_1</t>
+  </si>
+  <si>
+    <t>IVLAN_DUBUG_PD_2</t>
+  </si>
+  <si>
+    <t>IVLAN_DUBUG_PD_3</t>
+  </si>
+  <si>
+    <t>0x021</t>
+  </si>
+  <si>
+    <t>0x022</t>
+  </si>
+  <si>
+    <t>0x023</t>
+  </si>
+  <si>
+    <t>ivlan_debug_pd_1</t>
+  </si>
+  <si>
+    <t>ivlan_debug_pd_2</t>
+  </si>
+  <si>
+    <t>ivlan_debug_pd_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,12 +259,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -327,9 +392,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -348,18 +410,12 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -377,6 +433,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -682,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -705,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -745,17 +810,17 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
+      <c r="A3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>11</v>
@@ -766,70 +831,145 @@
       <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="22" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="16.5">
+      <c r="A4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="16.5">
+      <c r="A5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="16.5">
+      <c r="A6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="16.5">
+      <c r="A7" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="16.5">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A4" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="28" t="s">
+      <c r="E8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1">
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1">
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1">
-      <c r="H8" s="4"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1">
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1">
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1">
+      <c r="H11" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="G4:G5"/>
+  <mergeCells count="4">
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -838,10 +978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -861,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -901,405 +1041,167 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A3" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A4" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1">
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1">
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1">
-      <c r="H8" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="G4:G5"/>
-  </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="29.25" customWidth="1"/>
-    <col min="2" max="2" width="33.25" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="36.75" customWidth="1"/>
-    <col min="5" max="5" width="8.875" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="79.625" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>28</v>
+      <c r="A3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="22" t="s">
-        <v>36</v>
+      <c r="H3" s="20"/>
+      <c r="I3" s="26" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A4" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="A4" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="16.5">
+      <c r="A5" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="16.5">
+      <c r="A6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="16.5">
+      <c r="A7" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="28" t="s">
+      <c r="E7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1">
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1">
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1">
-      <c r="H8" s="4"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="16.5">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1">
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1">
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1">
+      <c r="H11" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B4:B5"/>
+  <mergeCells count="5">
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="29.25" customWidth="1"/>
-    <col min="2" max="2" width="33.25" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="36.75" customWidth="1"/>
-    <col min="5" max="5" width="8.875" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="79.625" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A3" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A4" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1">
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1">
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1">
-      <c r="H8" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="G4:G5"/>
-  </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
 </file>